--- a/reports/vivado/OperationChaining9nsSolution/power/OperationChaining9nsDSPPowerReport.xlsx
+++ b/reports/vivado/OperationChaining9nsSolution/power/OperationChaining9nsDSPPowerReport.xlsx
@@ -172,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>3.037953283637762E-4</v>
+        <v>3.0809169402346015E-4</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>1.6885047079995275E-4</v>
+        <v>1.701587316347286E-4</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -219,12 +219,12 @@
         <v>13</v>
       </c>
       <c r="H3" t="n" s="2">
-        <v>4.551723957061768</v>
+        <v>4.768362045288086</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>1.3494484301190823E-4</v>
+        <v>1.379329478368163E-4</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>14</v>
@@ -245,7 +245,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>4.562334060668945</v>
+        <v>4.698826789855957</v>
       </c>
     </row>
   </sheetData>
